--- a/stats/stats/actor_time.xlsx
+++ b/stats/stats/actor_time.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,81 +395,149 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10286</v>
+        <v>5000</v>
       </c>
       <c r="C2" t="n">
-        <v>10286</v>
+        <v>5000</v>
       </c>
       <c r="D2" t="n">
-        <v>10286</v>
+        <v>5000</v>
       </c>
       <c r="E2" t="n">
-        <v>10286</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>unique</t>
+          <t>mean</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8079</v>
+        <v>1567.06836</v>
       </c>
       <c r="C3" t="n">
-        <v>8079</v>
+        <v>1250.86738</v>
       </c>
       <c r="D3" t="n">
-        <v>8093</v>
+        <v>1437.16832</v>
       </c>
       <c r="E3" t="n">
-        <v>7935</v>
+        <v>1544.24366</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>top</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1186,9</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1154,1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1117,7</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>1124,0</t>
-        </is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1104.463982183438</v>
+      </c>
+      <c r="C4" t="n">
+        <v>767.9457595715106</v>
+      </c>
+      <c r="D4" t="n">
+        <v>939.9064048310056</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1056.217097924188</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>freq</t>
+          <t>min</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>267</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>645</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>702</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>484.025</v>
+      </c>
+      <c r="C6" t="n">
+        <v>490.225</v>
+      </c>
+      <c r="D6" t="n">
+        <v>505.4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>496.8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>50%</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1562.2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1431.3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1543.55</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1589.1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>75%</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2556.7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1974.975</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2323.725</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2522.25</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3454.7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2223.7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2793.2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3212.8</v>
       </c>
     </row>
   </sheetData>
